--- a/assets/testTeams.xlsx
+++ b/assets/testTeams.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="72">
   <si>
     <t>21.02.2008</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>kerim</t>
+  </si>
+  <si>
+    <t>feona</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <dimension ref="B1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -806,7 +809,7 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>38</v>
@@ -914,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -1106,7 +1109,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
         <v>28</v>
@@ -1138,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -1170,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -1234,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
@@ -1330,7 +1333,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1420,7 +1423,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="1">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>3</v>
@@ -1452,7 +1455,7 @@
         <v>58</v>
       </c>
       <c r="D25" s="1">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>2</v>
